--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2009 (P09).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2009 (P09).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,294 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blightning</t>
+          <t>('Blightning', ['{1}{B}{R}', 'Sorcery', 'Blightning deals 3 damage to target player or planeswalker. That player or that planeswalker’s controller discards two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{B}{R}</t>
+          <t>('Cryptic Command', ['{1}{U}{U}{U}', 'Instant', 'Choose two —', '• Counter target spell.', '• Return target permanent to its owner’s hand.', '• Tap all creatures your opponents control.', '• Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Flame Javelin', ['{2/R}{2/R}{2/R}', 'Instant', '({2/R} can be paid with any two mana or with {R}. This card’s converted mana cost is 6.)', 'Flame Javelin deals 4 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blightning deals 3 damage to target player or planeswalker. That player or that planeswalker’s controller discards two cards.</t>
+          <t>('Nameless Inversion', ['{1}{B}', 'Tribal Instant — Shapeshifter', 'Changeling (This card is every creature type.)', 'Target creature gets +3/-3 and loses all creature types until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cryptic Command</t>
+          <t>('Negate', ['{1}{U}', 'Instant', 'Counter target noncreature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{1}{U}{U}{U}</t>
+          <t>('Rampant Growth', ['{1}{G}', 'Sorcery', 'Search your library for a basic land card and put that card onto the battlefield tapped. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Remove Soul', ['{1}{U}', 'Instant', 'Counter target creature spell.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Choose two —</t>
+          <t>('Terminate', ['{B}{R}', 'Instant', 'Destroy target creature. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>• Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>• Return target permanent to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>• Tap all creatures your opponents control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>• Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Flame Javelin</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2/R}{2/R}{2/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>({2/R} can be paid with any two mana or with {R}. This card’s converted mana cost is 6.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Flame Javelin deals 4 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nameless Inversion</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tribal Instant — Shapeshifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Changeling (This card is every creature type.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Target creature gets +3/-3 and loses all creature types until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Negate</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Counter target noncreature spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Rampant Growth</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Search your library for a basic land card and put that card onto the battlefield tapped. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Remove Soul</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Counter target creature spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Terminate</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Destroy target creature. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Unmake</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{W/B}{W/B}{W/B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Exile target creature.</t>
+          <t>('Unmake', ['{W/B}{W/B}{W/B}', 'Instant', 'Exile target creature.'])</t>
         </is>
       </c>
     </row>
